--- a/excel/Inhouse-Grafica.xlsx
+++ b/excel/Inhouse-Grafica.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -673,9 +673,7 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
